--- a/HRMS.xlsx
+++ b/HRMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React App\HRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5205786B-E256-4353-A783-BCE1B4D04B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C03304-F896-49D3-9FFB-336D598BA281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -634,7 +633,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -794,6 +793,9 @@
       </c>
       <c r="K4" t="s">
         <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
